--- a/MLGU directory bohol 091616.xlsx
+++ b/MLGU directory bohol 091616.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="-225" windowWidth="18690" windowHeight="4320" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="-225" windowWidth="18690" windowHeight="4320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MA. MAO" sheetId="6" r:id="rId1"/>
@@ -692,9 +692,6 @@
   </si>
   <si>
     <t>Ma. Louella O. Cua</t>
-  </si>
-  <si>
-    <t>09192753554</t>
   </si>
   <si>
     <t>Maribeth C. Halasan</t>
@@ -2785,6 +2782,10 @@
   </si>
   <si>
     <t>Calixto Garcia</t>
+  </si>
+  <si>
+    <t>09192753554
+507-8030</t>
   </si>
 </sst>
 </file>
@@ -3580,6 +3581,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3628,7 +3630,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3937,8 +3938,8 @@
   </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3952,31 +3953,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="106" t="s">
-        <v>841</v>
-      </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
+      <c r="A3" s="107" t="s">
+        <v>840</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -3987,13 +3988,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="E4" s="66" t="s">
         <v>620</v>
       </c>
-      <c r="E4" s="66" t="s">
-        <v>621</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4002,19 +4003,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D5" s="61" t="s">
         <v>608</v>
       </c>
-      <c r="D5" s="61" t="s">
-        <v>609</v>
-      </c>
       <c r="E5" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4023,19 +4024,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D6" s="61" t="s">
         <v>610</v>
       </c>
-      <c r="D6" s="61" t="s">
-        <v>611</v>
-      </c>
       <c r="E6" s="68" t="s">
+        <v>623</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4047,13 +4048,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F7" s="2"/>
     </row>
@@ -4066,16 +4067,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D8" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4087,13 +4088,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D9" s="61" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -4106,16 +4107,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F10" s="91" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4127,16 +4128,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D11" s="61" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E11" s="67" t="s">
+        <v>625</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4148,16 +4149,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>613</v>
+      </c>
+      <c r="E12" s="67" t="s">
         <v>504</v>
       </c>
-      <c r="D12" s="61" t="s">
-        <v>614</v>
-      </c>
-      <c r="E12" s="67" t="s">
+      <c r="F12" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4169,13 +4170,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -4188,13 +4189,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -4207,13 +4208,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -4226,16 +4227,16 @@
         <v>13</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E16" s="70" t="s">
+        <v>628</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>629</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4247,16 +4248,16 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4268,16 +4269,16 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4289,13 +4290,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D19" s="61" t="s">
         <v>615</v>
       </c>
-      <c r="D19" s="61" t="s">
-        <v>616</v>
-      </c>
       <c r="E19" s="67" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -4308,16 +4309,16 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E20" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4329,16 +4330,16 @@
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4350,13 +4351,13 @@
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E22" s="67" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -4369,16 +4370,16 @@
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E23" s="67" t="s">
+        <v>634</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4390,13 +4391,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E24" s="69" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -4409,16 +4410,16 @@
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D25" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E25" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4430,13 +4431,13 @@
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E26" s="67" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F26" s="2"/>
     </row>
@@ -4449,13 +4450,13 @@
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D27" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F27" s="2"/>
     </row>
@@ -4468,13 +4469,13 @@
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D28" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -4487,13 +4488,13 @@
         <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E29" s="69" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F29" s="2"/>
     </row>
@@ -4506,16 +4507,16 @@
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -4527,13 +4528,13 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F31" s="2"/>
     </row>
@@ -4546,16 +4547,16 @@
         <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D32" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E32" s="67" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F32" s="58" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -4567,16 +4568,16 @@
         <v>30</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E33" s="71" t="s">
+        <v>638</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>639</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -4588,13 +4589,13 @@
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D34" s="61" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E34" s="67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -4607,13 +4608,13 @@
         <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D35" s="61" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E35" s="67" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -4626,16 +4627,16 @@
         <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D36" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E36" s="67" t="s">
+        <v>641</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -4647,13 +4648,13 @@
         <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D37" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E37" s="67" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F37" s="2"/>
     </row>
@@ -4666,16 +4667,16 @@
         <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D38" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E38" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -4687,13 +4688,13 @@
         <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D39" s="61" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E39" s="67" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -4706,13 +4707,13 @@
         <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D40" s="61" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E40" s="69" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F40" s="2"/>
     </row>
@@ -4725,16 +4726,16 @@
         <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E41" s="67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F41" s="58" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -4746,13 +4747,13 @@
         <v>202</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D42" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E42" s="68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F42" s="2"/>
     </row>
@@ -4765,16 +4766,16 @@
         <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E43" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4786,13 +4787,13 @@
         <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D44" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E44" s="68" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F44" s="2"/>
     </row>
@@ -4805,16 +4806,16 @@
         <v>42</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E45" s="72" t="s">
+        <v>644</v>
+      </c>
+      <c r="F45" s="59" t="s">
         <v>645</v>
-      </c>
-      <c r="F45" s="59" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -4826,16 +4827,16 @@
         <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D46" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E46" s="67" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4850,13 +4851,13 @@
         <v>45</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E47" s="67" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F47" s="58" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -4868,13 +4869,13 @@
         <v>46</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D48" s="76" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E48" s="71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F48" s="21"/>
     </row>
@@ -4887,16 +4888,16 @@
         <v>47</v>
       </c>
       <c r="C49" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="D49" s="75" t="s">
         <v>618</v>
       </c>
-      <c r="D49" s="75" t="s">
-        <v>619</v>
-      </c>
       <c r="E49" s="70" t="s">
+        <v>647</v>
+      </c>
+      <c r="F49" s="21" t="s">
         <v>648</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -4908,16 +4909,16 @@
         <v>48</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E50" s="73" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -4929,16 +4930,16 @@
         <v>49</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D51" s="76" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E51" s="71" t="s">
+        <v>649</v>
+      </c>
+      <c r="F51" s="74" t="s">
         <v>650</v>
-      </c>
-      <c r="F51" s="74" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4950,13 +4951,13 @@
         <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D52" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E52" s="68" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F52" s="2"/>
     </row>
@@ -4969,16 +4970,16 @@
         <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D53" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E53" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -4990,16 +4991,16 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D54" s="77" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -5039,12 +5040,12 @@
   </sheetPr>
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5060,24 +5061,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
-        <v>499</v>
-      </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="A2" s="109" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -5087,10 +5088,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>3</v>
@@ -5104,22 +5105,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>221</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G4" s="100" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5129,7 +5130,7 @@
       <c r="D5" s="44"/>
       <c r="E5" s="35"/>
       <c r="F5" s="64" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G5" s="15"/>
     </row>
@@ -5138,35 +5139,35 @@
         <v>5</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
       <c r="B7" s="34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
@@ -5176,12 +5177,12 @@
         <v>6</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="44"/>
       <c r="E8" s="35" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="15"/>
@@ -5189,13 +5190,13 @@
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="50" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="44"/>
       <c r="E9" s="35"/>
       <c r="F9" s="25" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G9" s="15"/>
     </row>
@@ -5204,13 +5205,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>210</v>
@@ -5225,11 +5226,11 @@
         <v>8</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="13"/>
@@ -5240,19 +5241,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G12" s="15"/>
     </row>
@@ -5261,30 +5262,30 @@
         <v>10</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
       <c r="B14" s="51" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="25"/>
@@ -5293,11 +5294,11 @@
     <row r="15" spans="1:7" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="51" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="25"/>
@@ -5308,16 +5309,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="15"/>
@@ -5325,17 +5326,17 @@
     <row r="17" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
       <c r="B17" s="34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E17" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>448</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>449</v>
       </c>
       <c r="G17" s="15"/>
     </row>
@@ -5344,13 +5345,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E18" s="35" t="s">
         <v>214</v>
@@ -5361,56 +5362,56 @@
     <row r="19" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
       <c r="B19" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>340</v>
+      </c>
+      <c r="F19" s="57" t="s">
         <v>450</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>341</v>
-      </c>
-      <c r="F19" s="57" t="s">
-        <v>451</v>
       </c>
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
       <c r="B20" s="34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G20" s="100" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C21" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E21" s="35" t="s">
         <v>247</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>248</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="15"/>
@@ -5418,35 +5419,35 @@
     <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
       <c r="B22" s="34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E22" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="F22" s="57" t="s">
         <v>453</v>
       </c>
-      <c r="F22" s="57" t="s">
-        <v>454</v>
-      </c>
       <c r="G22" s="100" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
       <c r="B23" s="34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
@@ -5456,16 +5457,16 @@
         <v>13</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="15"/>
@@ -5473,11 +5474,11 @@
     <row r="25" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
       <c r="B25" s="34" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C25" s="34"/>
       <c r="D25" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E25" s="35"/>
       <c r="F25" s="13"/>
@@ -5491,13 +5492,13 @@
         <v>222</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>223</v>
+        <v>903</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="15"/>
@@ -5507,16 +5508,16 @@
         <v>15</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="15"/>
@@ -5524,28 +5525,28 @@
     <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="34" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F28" s="57" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="34" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="25"/>
@@ -5554,11 +5555,11 @@
     <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
       <c r="B30" s="34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E30" s="35"/>
       <c r="F30" s="25"/>
@@ -5569,38 +5570,38 @@
         <v>16</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>216</v>
       </c>
       <c r="F31" s="57" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
       <c r="B32" s="34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C32" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E32" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="D32" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>263</v>
-      </c>
       <c r="F32" s="57" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G32" s="15"/>
     </row>
@@ -5609,30 +5610,30 @@
         <v>17</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>213</v>
       </c>
       <c r="F33" s="57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
       <c r="B34" s="34" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E34" s="35"/>
       <c r="F34" s="25"/>
@@ -5641,11 +5642,11 @@
     <row r="35" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="34" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E35" s="35"/>
       <c r="F35" s="25"/>
@@ -5656,19 +5657,19 @@
         <v>18</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G36" s="15"/>
     </row>
@@ -5677,16 +5678,16 @@
         <v>19</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="15"/>
@@ -5696,19 +5697,19 @@
         <v>20</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F38" s="57" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G38" s="15"/>
     </row>
@@ -5717,30 +5718,30 @@
         <v>21</v>
       </c>
       <c r="B39" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>841</v>
+      </c>
+      <c r="F39" s="57" t="s">
         <v>224</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="D39" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>842</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>225</v>
       </c>
       <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="34"/>
       <c r="B40" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C40" s="34"/>
       <c r="D40" s="44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E40" s="35"/>
       <c r="F40" s="25"/>
@@ -5751,13 +5752,13 @@
         <v>22</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E41" s="35" t="s">
         <v>209</v>
@@ -5768,19 +5769,19 @@
     <row r="42" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="34"/>
       <c r="B42" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D42" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E42" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="F42" s="57" t="s">
         <v>349</v>
-      </c>
-      <c r="F42" s="57" t="s">
-        <v>350</v>
       </c>
       <c r="G42" s="15"/>
     </row>
@@ -5789,19 +5790,19 @@
         <v>24</v>
       </c>
       <c r="B43" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E43" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="C43" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="D43" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>393</v>
-      </c>
       <c r="F43" s="57" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G43" s="15"/>
     </row>
@@ -5810,37 +5811,37 @@
         <v>25</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E44" s="35" t="s">
         <v>205</v>
       </c>
       <c r="F44" s="57" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G44" s="102" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="34"/>
       <c r="B45" s="34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D45" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="15"/>
@@ -5850,35 +5851,35 @@
         <v>201</v>
       </c>
       <c r="B46" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="C46" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="C46" s="34" t="s">
-        <v>364</v>
-      </c>
       <c r="D46" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E46" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="F46" s="57" t="s">
         <v>459</v>
-      </c>
-      <c r="F46" s="57" t="s">
-        <v>460</v>
       </c>
       <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36"/>
       <c r="B47" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E47" s="35" t="s">
         <v>396</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="D47" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>397</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="15"/>
@@ -5888,13 +5889,13 @@
         <v>27</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E48" s="35" t="s">
         <v>208</v>
@@ -5907,34 +5908,34 @@
         <v>28</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C49" s="34"/>
       <c r="D49" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F49" s="57" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G49" s="101" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
       <c r="B50" s="34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C50" s="34"/>
       <c r="D50" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E50" s="35"/>
       <c r="F50" s="57" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G50" s="15"/>
     </row>
@@ -5943,16 +5944,16 @@
         <v>29</v>
       </c>
       <c r="B51" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D51" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E51" s="35" t="s">
         <v>228</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="D51" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>229</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="15"/>
@@ -5962,28 +5963,28 @@
         <v>30</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C52" s="34"/>
       <c r="D52" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F52" s="57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G52" s="15"/>
     </row>
     <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="34"/>
       <c r="B53" s="34" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C53" s="34"/>
       <c r="D53" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E53" s="35"/>
       <c r="F53" s="25"/>
@@ -5992,11 +5993,11 @@
     <row r="54" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="34"/>
       <c r="B54" s="34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C54" s="34"/>
       <c r="D54" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E54" s="35"/>
       <c r="F54" s="25"/>
@@ -6007,19 +6008,19 @@
         <v>31</v>
       </c>
       <c r="B55" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="C55" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="C55" s="34" t="s">
-        <v>400</v>
-      </c>
       <c r="D55" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F55" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G55" s="15"/>
     </row>
@@ -6028,13 +6029,13 @@
         <v>32</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D56" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E56" s="35" t="s">
         <v>218</v>
@@ -6047,38 +6048,38 @@
         <v>33</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D57" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E57" s="35" t="s">
         <v>217</v>
       </c>
       <c r="F57" s="57" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G57" s="15"/>
     </row>
     <row r="58" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="36"/>
       <c r="B58" s="34" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F58" s="57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G58" s="15"/>
     </row>
@@ -6087,19 +6088,19 @@
         <v>34</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D59" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F59" s="57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G59" s="15"/>
     </row>
@@ -6108,16 +6109,16 @@
         <v>35</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="15"/>
@@ -6125,16 +6126,16 @@
     <row r="61" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="36"/>
       <c r="B61" s="34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C61" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="D61" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E61" s="35" t="s">
         <v>407</v>
-      </c>
-      <c r="D61" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>408</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="15"/>
@@ -6144,19 +6145,19 @@
         <v>36</v>
       </c>
       <c r="B62" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="C62" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="D62" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E62" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="D62" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>411</v>
-      </c>
       <c r="F62" s="57" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G62" s="15"/>
     </row>
@@ -6168,10 +6169,10 @@
         <v>211</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D63" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E63" s="35" t="s">
         <v>212</v>
@@ -6182,35 +6183,35 @@
     <row r="64" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="34"/>
       <c r="B64" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C64" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="D64" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E64" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="D64" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>237</v>
-      </c>
       <c r="F64" s="57" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G64" s="15"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="34"/>
       <c r="B65" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="C65" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="D65" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E65" s="35" t="s">
         <v>287</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>288</v>
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="15"/>
@@ -6218,11 +6219,11 @@
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="34"/>
       <c r="B66" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C66" s="34"/>
       <c r="D66" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E66" s="35"/>
       <c r="F66" s="13"/>
@@ -6233,19 +6234,19 @@
         <v>202</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F67" s="57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G67" s="15"/>
     </row>
@@ -6254,19 +6255,19 @@
         <v>40</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D68" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E68" s="35" t="s">
         <v>207</v>
       </c>
       <c r="F68" s="57" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G68" s="15"/>
     </row>
@@ -6275,19 +6276,19 @@
         <v>41</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F69" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G69" s="15"/>
     </row>
@@ -6296,35 +6297,35 @@
         <v>42</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E70" s="35" t="s">
         <v>206</v>
       </c>
       <c r="F70" s="57" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G70" s="15"/>
     </row>
     <row r="71" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="36"/>
       <c r="B71" s="54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="15"/>
@@ -6332,11 +6333,11 @@
     <row r="72" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="52"/>
       <c r="B72" s="56" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C72" s="53"/>
       <c r="D72" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E72" s="35"/>
       <c r="F72" s="13"/>
@@ -6345,11 +6346,11 @@
     <row r="73" spans="1:7" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="52"/>
       <c r="B73" s="56" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C73" s="53"/>
       <c r="D73" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E73" s="35"/>
       <c r="F73" s="13"/>
@@ -6360,14 +6361,14 @@
         <v>43</v>
       </c>
       <c r="B74" s="55" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C74" s="34"/>
       <c r="D74" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="15"/>
@@ -6377,16 +6378,16 @@
         <v>44</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E75" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="15"/>
@@ -6394,49 +6395,49 @@
     <row r="76" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="36"/>
       <c r="B76" s="34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C76" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D76" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E76" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="D76" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="E76" s="35" t="s">
-        <v>255</v>
-      </c>
       <c r="F76" s="57" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G76" s="15"/>
     </row>
     <row r="77" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="36"/>
       <c r="B77" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C77" s="34"/>
       <c r="D77" s="44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F77" s="57" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36"/>
       <c r="B78" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C78" s="34"/>
       <c r="D78" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E78" s="35"/>
       <c r="F78" s="25"/>
@@ -6447,19 +6448,19 @@
         <v>46</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D79" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E79" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F79" s="57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G79" s="15"/>
     </row>
@@ -6468,35 +6469,35 @@
         <v>48</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D80" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E80" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F80" s="57" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G80" s="15"/>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36"/>
       <c r="B81" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="C81" s="34" t="s">
         <v>468</v>
       </c>
-      <c r="C81" s="34" t="s">
+      <c r="D81" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E81" s="35" t="s">
         <v>469</v>
-      </c>
-      <c r="D81" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="E81" s="35" t="s">
-        <v>470</v>
       </c>
       <c r="F81" s="25"/>
       <c r="G81" s="15"/>
@@ -6506,16 +6507,16 @@
         <v>49</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D82" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="15"/>
@@ -6525,19 +6526,19 @@
         <v>50</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D83" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E83" s="35" t="s">
         <v>215</v>
       </c>
       <c r="F83" s="57" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G83" s="15"/>
     </row>
@@ -6546,35 +6547,35 @@
         <v>51</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E84" s="35" t="s">
         <v>219</v>
       </c>
       <c r="F84" s="57" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G84" s="15"/>
     </row>
     <row r="85" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="34"/>
       <c r="B85" s="34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C85" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E85" s="35" t="s">
         <v>278</v>
-      </c>
-      <c r="D85" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="E85" s="35" t="s">
-        <v>279</v>
       </c>
       <c r="F85" s="13"/>
       <c r="G85" s="15"/>
@@ -6582,16 +6583,16 @@
     <row r="86" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="34"/>
       <c r="B86" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C86" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="C86" s="34" t="s">
+      <c r="D86" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E86" s="35" t="s">
         <v>281</v>
-      </c>
-      <c r="D86" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="E86" s="35" t="s">
-        <v>282</v>
       </c>
       <c r="F86" s="13"/>
       <c r="G86" s="15"/>
@@ -6599,28 +6600,28 @@
     <row r="87" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="34"/>
       <c r="B87" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C87" s="34"/>
       <c r="D87" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E87" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="F87" s="57" t="s">
         <v>465</v>
-      </c>
-      <c r="F87" s="57" t="s">
-        <v>466</v>
       </c>
       <c r="G87" s="15"/>
     </row>
     <row r="88" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="34"/>
       <c r="B88" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C88" s="34"/>
       <c r="D88" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E88" s="35"/>
       <c r="F88" s="13"/>
@@ -6629,11 +6630,11 @@
     <row r="89" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="34"/>
       <c r="B89" s="34" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C89" s="34"/>
       <c r="D89" s="44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E89" s="35"/>
       <c r="F89" s="13"/>
@@ -6644,19 +6645,19 @@
         <v>52</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D90" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F90" s="59" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G90" s="15"/>
     </row>
@@ -6758,31 +6759,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
-        <v>509</v>
-      </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="A2" s="106" t="s">
+        <v>508</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="106" t="s">
-        <v>508</v>
-      </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
+      <c r="A3" s="107" t="s">
+        <v>507</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -6814,10 +6815,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E6" s="27"/>
     </row>
@@ -6829,10 +6830,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E7" s="28"/>
     </row>
@@ -6844,7 +6845,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="27"/>
@@ -6857,10 +6858,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E9" s="27"/>
     </row>
@@ -6872,7 +6873,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="27"/>
@@ -6885,7 +6886,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="58"/>
@@ -6898,7 +6899,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="27"/>
@@ -6911,7 +6912,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="27"/>
@@ -6924,7 +6925,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="27"/>
@@ -6937,13 +6938,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D15" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="E15" s="58" t="s">
         <v>572</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6954,10 +6955,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E16" s="28"/>
     </row>
@@ -6969,7 +6970,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="29"/>
@@ -6982,7 +6983,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="28"/>
@@ -6995,7 +6996,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="27"/>
@@ -7008,7 +7009,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="27"/>
@@ -7021,7 +7022,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="27"/>
@@ -7045,7 +7046,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="27"/>
@@ -7054,10 +7055,10 @@
       <c r="A24" s="6"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>576</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>577</v>
       </c>
       <c r="E24" s="27"/>
     </row>
@@ -7069,7 +7070,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="58"/>
@@ -7082,10 +7083,10 @@
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E26" s="27"/>
     </row>
@@ -7097,7 +7098,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="27"/>
@@ -7110,7 +7111,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="27"/>
@@ -7123,7 +7124,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="28"/>
@@ -7147,7 +7148,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="27"/>
@@ -7160,7 +7161,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="27"/>
@@ -7173,10 +7174,10 @@
         <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E33" s="27"/>
     </row>
@@ -7188,13 +7189,13 @@
         <v>31</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E34" s="59" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -7216,7 +7217,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="27"/>
@@ -7229,7 +7230,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="27"/>
@@ -7239,7 +7240,7 @@
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="27"/>
@@ -7252,7 +7253,7 @@
         <v>35</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="27"/>
@@ -7265,7 +7266,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="27"/>
@@ -7278,7 +7279,7 @@
         <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="27"/>
@@ -7291,13 +7292,13 @@
         <v>38</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D42" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="E42" s="58" t="s">
         <v>598</v>
-      </c>
-      <c r="E42" s="58" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -7308,13 +7309,13 @@
         <v>202</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D43" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="E43" s="58" t="s">
         <v>579</v>
-      </c>
-      <c r="E43" s="58" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -7325,7 +7326,7 @@
         <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="28"/>
@@ -7338,7 +7339,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="27"/>
@@ -7351,7 +7352,7 @@
         <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="28"/>
@@ -7364,7 +7365,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="57"/>
@@ -7377,7 +7378,7 @@
         <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="27"/>
@@ -7390,7 +7391,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="27"/>
@@ -7403,7 +7404,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="27"/>
@@ -7416,10 +7417,10 @@
         <v>48</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E51" s="29"/>
     </row>
@@ -7431,7 +7432,7 @@
         <v>49</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="31"/>
@@ -7444,7 +7445,7 @@
         <v>50</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="27"/>
@@ -7457,7 +7458,7 @@
         <v>51</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="28"/>
@@ -7470,13 +7471,13 @@
         <v>52</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D55" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="E55" s="58" t="s">
         <v>587</v>
-      </c>
-      <c r="E55" s="58" t="s">
-        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -7518,84 +7519,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="110" t="s">
+        <v>655</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="111" t="s">
         <v>656</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="110" t="s">
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="110" t="s">
         <v>657</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="109" t="s">
-        <v>658</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="112" t="s">
+        <v>658</v>
+      </c>
+      <c r="B5" s="112" t="s">
         <v>659</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="C5" s="112" t="s">
         <v>660</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="D5" s="112" t="s">
         <v>661</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="E5" s="112" t="s">
         <v>662</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="F5" s="114" t="s">
         <v>663</v>
       </c>
-      <c r="F5" s="113" t="s">
+      <c r="G5" s="114"/>
+      <c r="H5" s="112" t="s">
         <v>664</v>
       </c>
-      <c r="G5" s="113"/>
-      <c r="H5" s="111" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="113"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="78" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="78" t="s">
+      <c r="G6" s="78" t="s">
         <v>666</v>
       </c>
-      <c r="G6" s="78" t="s">
-        <v>667</v>
-      </c>
-      <c r="H6" s="112"/>
+      <c r="H6" s="113"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="79"/>
       <c r="B7" s="80" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C7" s="81"/>
       <c r="D7" s="82"/>
@@ -7607,16 +7608,16 @@
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="83"/>
       <c r="B8" s="84" t="s">
+        <v>668</v>
+      </c>
+      <c r="C8" s="84" t="s">
         <v>669</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="D8" s="85" t="s">
         <v>670</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="E8" s="84" t="s">
         <v>671</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>672</v>
       </c>
       <c r="F8" s="86"/>
       <c r="G8" s="87">
@@ -7627,82 +7628,82 @@
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="88"/>
       <c r="B9" s="89" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C9" s="89" t="s">
+        <v>672</v>
+      </c>
+      <c r="D9" s="90" t="s">
         <v>673</v>
       </c>
-      <c r="D9" s="90" t="s">
-        <v>674</v>
-      </c>
       <c r="E9" s="89" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F9" s="91"/>
       <c r="G9" s="92">
         <v>9303596438</v>
       </c>
       <c r="H9" s="93" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="88"/>
       <c r="B10" s="89" t="s">
+        <v>675</v>
+      </c>
+      <c r="C10" s="89" t="s">
         <v>676</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="D10" s="90" t="s">
         <v>677</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="E10" s="91" t="s">
         <v>678</v>
-      </c>
-      <c r="E10" s="91" t="s">
-        <v>679</v>
       </c>
       <c r="F10" s="91"/>
       <c r="G10" s="92">
         <v>9122507956</v>
       </c>
       <c r="H10" s="93" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="88"/>
       <c r="B11" s="89" t="s">
+        <v>680</v>
+      </c>
+      <c r="C11" s="89" t="s">
         <v>681</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="D11" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E11" s="91" t="s">
         <v>682</v>
-      </c>
-      <c r="D11" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E11" s="91" t="s">
-        <v>683</v>
       </c>
       <c r="F11" s="91"/>
       <c r="G11" s="92">
         <v>9098927963</v>
       </c>
       <c r="H11" s="93" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="88"/>
       <c r="B12" s="89" t="s">
+        <v>684</v>
+      </c>
+      <c r="C12" s="89" t="s">
         <v>685</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="D12" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E12" s="91" t="s">
         <v>686</v>
-      </c>
-      <c r="D12" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E12" s="91" t="s">
-        <v>687</v>
       </c>
       <c r="F12" s="91"/>
       <c r="G12" s="92">
@@ -7713,16 +7714,16 @@
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="88"/>
       <c r="B13" s="89" t="s">
+        <v>687</v>
+      </c>
+      <c r="C13" s="89" t="s">
         <v>688</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="D13" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E13" s="91" t="s">
         <v>689</v>
-      </c>
-      <c r="D13" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E13" s="91" t="s">
-        <v>690</v>
       </c>
       <c r="F13" s="91"/>
       <c r="G13" s="92">
@@ -7733,38 +7734,38 @@
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="88"/>
       <c r="B14" s="89" t="s">
+        <v>690</v>
+      </c>
+      <c r="C14" s="89" t="s">
         <v>691</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="D14" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E14" s="91" t="s">
         <v>692</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E14" s="91" t="s">
-        <v>693</v>
       </c>
       <c r="F14" s="91"/>
       <c r="G14" s="92">
         <v>9296290224</v>
       </c>
       <c r="H14" s="93" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="88"/>
       <c r="B15" s="89" t="s">
+        <v>694</v>
+      </c>
+      <c r="C15" s="89" t="s">
         <v>695</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="D15" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E15" s="91" t="s">
         <v>696</v>
-      </c>
-      <c r="D15" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E15" s="91" t="s">
-        <v>697</v>
       </c>
       <c r="F15" s="91"/>
       <c r="G15" s="92">
@@ -7775,60 +7776,60 @@
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="88"/>
       <c r="B16" s="89" t="s">
+        <v>697</v>
+      </c>
+      <c r="C16" s="89" t="s">
         <v>698</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="D16" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E16" s="91" t="s">
         <v>699</v>
-      </c>
-      <c r="D16" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E16" s="91" t="s">
-        <v>700</v>
       </c>
       <c r="F16" s="91"/>
       <c r="G16" s="92">
         <v>9213291283</v>
       </c>
       <c r="H16" s="93" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="88"/>
       <c r="B17" s="89" t="s">
+        <v>701</v>
+      </c>
+      <c r="C17" s="89" t="s">
         <v>702</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="D17" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E17" s="91" t="s">
         <v>703</v>
-      </c>
-      <c r="D17" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E17" s="91" t="s">
-        <v>704</v>
       </c>
       <c r="F17" s="91"/>
       <c r="G17" s="92">
         <v>9996546156</v>
       </c>
       <c r="H17" s="93" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="88"/>
       <c r="B18" s="89" t="s">
+        <v>705</v>
+      </c>
+      <c r="C18" s="89" t="s">
         <v>706</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="D18" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E18" s="91" t="s">
         <v>707</v>
-      </c>
-      <c r="D18" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E18" s="91" t="s">
-        <v>708</v>
       </c>
       <c r="F18" s="91"/>
       <c r="G18" s="92">
@@ -7839,60 +7840,60 @@
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="88"/>
       <c r="B19" s="89" t="s">
+        <v>708</v>
+      </c>
+      <c r="C19" s="89" t="s">
         <v>709</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="D19" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E19" s="91" t="s">
         <v>710</v>
-      </c>
-      <c r="D19" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E19" s="91" t="s">
-        <v>711</v>
       </c>
       <c r="F19" s="91"/>
       <c r="G19" s="92">
         <v>9174348869</v>
       </c>
       <c r="H19" s="93" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="88"/>
       <c r="B20" s="89" t="s">
+        <v>712</v>
+      </c>
+      <c r="C20" s="89" t="s">
         <v>713</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="D20" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E20" s="91" t="s">
         <v>714</v>
-      </c>
-      <c r="D20" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E20" s="91" t="s">
-        <v>715</v>
       </c>
       <c r="F20" s="91"/>
       <c r="G20" s="92">
         <v>9098164946</v>
       </c>
       <c r="H20" s="93" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="88"/>
       <c r="B21" s="89" t="s">
+        <v>716</v>
+      </c>
+      <c r="C21" s="89" t="s">
         <v>717</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="D21" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E21" s="91" t="s">
         <v>718</v>
-      </c>
-      <c r="D21" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E21" s="91" t="s">
-        <v>719</v>
       </c>
       <c r="F21" s="91"/>
       <c r="G21" s="92">
@@ -7903,67 +7904,67 @@
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="88"/>
       <c r="B22" s="89" t="s">
+        <v>719</v>
+      </c>
+      <c r="C22" s="89" t="s">
         <v>720</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="D22" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E22" s="91" t="s">
         <v>721</v>
-      </c>
-      <c r="D22" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E22" s="91" t="s">
-        <v>722</v>
       </c>
       <c r="F22" s="91"/>
       <c r="G22" s="92">
         <v>9277932402</v>
       </c>
       <c r="H22" s="93" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="88"/>
       <c r="B23" s="89" t="s">
+        <v>723</v>
+      </c>
+      <c r="C23" s="89" t="s">
         <v>724</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="D23" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E23" s="91" t="s">
         <v>725</v>
-      </c>
-      <c r="D23" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E23" s="91" t="s">
-        <v>726</v>
       </c>
       <c r="F23" s="91"/>
       <c r="G23" s="92">
         <v>9074674964</v>
       </c>
       <c r="H23" s="93" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="88"/>
       <c r="B24" s="89" t="s">
+        <v>727</v>
+      </c>
+      <c r="C24" s="89" t="s">
         <v>728</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="D24" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E24" s="91" t="s">
         <v>729</v>
-      </c>
-      <c r="D24" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E24" s="91" t="s">
-        <v>730</v>
       </c>
       <c r="F24" s="91"/>
       <c r="G24" s="92">
         <v>9214817674</v>
       </c>
       <c r="H24" s="93" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7979,7 +7980,7 @@
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="88"/>
       <c r="B26" s="80" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="90"/>
@@ -7991,60 +7992,60 @@
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="88"/>
       <c r="B27" s="89" t="s">
+        <v>732</v>
+      </c>
+      <c r="C27" s="89" t="s">
         <v>733</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="D27" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E27" s="91" t="s">
         <v>734</v>
-      </c>
-      <c r="D27" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E27" s="91" t="s">
-        <v>735</v>
       </c>
       <c r="F27" s="91"/>
       <c r="G27" s="92">
         <v>9286081942</v>
       </c>
       <c r="H27" s="93" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="88"/>
       <c r="B28" s="89" t="s">
+        <v>736</v>
+      </c>
+      <c r="C28" s="89" t="s">
         <v>737</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="D28" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E28" s="91" t="s">
         <v>738</v>
-      </c>
-      <c r="D28" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E28" s="91" t="s">
-        <v>739</v>
       </c>
       <c r="F28" s="91"/>
       <c r="G28" s="92">
         <v>9173225296</v>
       </c>
       <c r="H28" s="93" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="88"/>
       <c r="B29" s="89" t="s">
+        <v>740</v>
+      </c>
+      <c r="C29" s="89" t="s">
         <v>741</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="D29" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E29" s="91" t="s">
         <v>742</v>
-      </c>
-      <c r="D29" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E29" s="91" t="s">
-        <v>743</v>
       </c>
       <c r="F29" s="91"/>
       <c r="G29" s="92">
@@ -8055,38 +8056,38 @@
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="88"/>
       <c r="B30" s="89" t="s">
+        <v>743</v>
+      </c>
+      <c r="C30" s="89" t="s">
         <v>744</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="D30" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E30" s="91" t="s">
         <v>745</v>
-      </c>
-      <c r="D30" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E30" s="91" t="s">
-        <v>746</v>
       </c>
       <c r="F30" s="91"/>
       <c r="G30" s="92">
         <v>9486329575</v>
       </c>
       <c r="H30" s="93" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="88"/>
       <c r="B31" s="89" t="s">
+        <v>746</v>
+      </c>
+      <c r="C31" s="89" t="s">
         <v>747</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="D31" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E31" s="91" t="s">
         <v>748</v>
-      </c>
-      <c r="D31" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E31" s="91" t="s">
-        <v>749</v>
       </c>
       <c r="F31" s="91"/>
       <c r="G31" s="92"/>
@@ -8095,16 +8096,16 @@
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="88"/>
       <c r="B32" s="89" t="s">
+        <v>749</v>
+      </c>
+      <c r="C32" s="89" t="s">
         <v>750</v>
       </c>
-      <c r="C32" s="89" t="s">
+      <c r="D32" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E32" s="91" t="s">
         <v>751</v>
-      </c>
-      <c r="D32" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E32" s="91" t="s">
-        <v>752</v>
       </c>
       <c r="F32" s="91"/>
       <c r="G32" s="92"/>
@@ -8113,38 +8114,38 @@
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="88"/>
       <c r="B33" s="89" t="s">
+        <v>752</v>
+      </c>
+      <c r="C33" s="89" t="s">
         <v>753</v>
       </c>
-      <c r="C33" s="89" t="s">
+      <c r="D33" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E33" s="91" t="s">
         <v>754</v>
-      </c>
-      <c r="D33" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E33" s="91" t="s">
-        <v>755</v>
       </c>
       <c r="F33" s="91"/>
       <c r="G33" s="92">
         <v>9302312725</v>
       </c>
       <c r="H33" s="93" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="88"/>
       <c r="B34" s="89" t="s">
+        <v>756</v>
+      </c>
+      <c r="C34" s="89" t="s">
         <v>757</v>
       </c>
-      <c r="C34" s="89" t="s">
+      <c r="D34" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E34" s="91" t="s">
         <v>758</v>
-      </c>
-      <c r="D34" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E34" s="91" t="s">
-        <v>759</v>
       </c>
       <c r="F34" s="91"/>
       <c r="G34" s="92">
@@ -8155,16 +8156,16 @@
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="88"/>
       <c r="B35" s="89" t="s">
+        <v>759</v>
+      </c>
+      <c r="C35" s="89" t="s">
         <v>760</v>
       </c>
-      <c r="C35" s="89" t="s">
+      <c r="D35" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E35" s="91" t="s">
         <v>761</v>
-      </c>
-      <c r="D35" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E35" s="91" t="s">
-        <v>762</v>
       </c>
       <c r="F35" s="91"/>
       <c r="G35" s="92"/>
@@ -8173,60 +8174,60 @@
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="88"/>
       <c r="B36" s="89" t="s">
+        <v>762</v>
+      </c>
+      <c r="C36" s="89" t="s">
         <v>763</v>
       </c>
-      <c r="C36" s="89" t="s">
+      <c r="D36" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E36" s="91" t="s">
         <v>764</v>
-      </c>
-      <c r="D36" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E36" s="91" t="s">
-        <v>765</v>
       </c>
       <c r="F36" s="91"/>
       <c r="G36" s="92">
         <v>9302294813</v>
       </c>
       <c r="H36" s="93" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="88"/>
       <c r="B37" s="89" t="s">
+        <v>765</v>
+      </c>
+      <c r="C37" s="89" t="s">
         <v>766</v>
       </c>
-      <c r="C37" s="89" t="s">
+      <c r="D37" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E37" s="91" t="s">
         <v>767</v>
-      </c>
-      <c r="D37" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E37" s="91" t="s">
-        <v>768</v>
       </c>
       <c r="F37" s="91"/>
       <c r="G37" s="92">
         <v>9985705306</v>
       </c>
       <c r="H37" s="93" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="88"/>
       <c r="B38" s="89" t="s">
+        <v>769</v>
+      </c>
+      <c r="C38" s="89" t="s">
         <v>770</v>
       </c>
-      <c r="C38" s="89" t="s">
+      <c r="D38" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E38" s="91" t="s">
         <v>771</v>
-      </c>
-      <c r="D38" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E38" s="91" t="s">
-        <v>772</v>
       </c>
       <c r="F38" s="91"/>
       <c r="G38" s="92">
@@ -8237,11 +8238,11 @@
     <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="88"/>
       <c r="B39" s="80" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C39" s="80"/>
       <c r="D39" s="90" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E39" s="91"/>
       <c r="F39" s="91"/>
@@ -8251,16 +8252,16 @@
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="88"/>
       <c r="B40" s="89" t="s">
+        <v>773</v>
+      </c>
+      <c r="C40" s="89" t="s">
         <v>774</v>
       </c>
-      <c r="C40" s="89" t="s">
+      <c r="D40" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E40" s="91" t="s">
         <v>775</v>
-      </c>
-      <c r="D40" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E40" s="91" t="s">
-        <v>776</v>
       </c>
       <c r="F40" s="91"/>
       <c r="G40" s="92">
@@ -8271,16 +8272,16 @@
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="88"/>
       <c r="B41" s="89" t="s">
+        <v>776</v>
+      </c>
+      <c r="C41" s="89" t="s">
         <v>777</v>
       </c>
-      <c r="C41" s="89" t="s">
+      <c r="D41" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E41" s="91" t="s">
         <v>778</v>
-      </c>
-      <c r="D41" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E41" s="91" t="s">
-        <v>779</v>
       </c>
       <c r="F41" s="91"/>
       <c r="G41" s="92">
@@ -8291,60 +8292,60 @@
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="88"/>
       <c r="B42" s="89" t="s">
+        <v>779</v>
+      </c>
+      <c r="C42" s="89" t="s">
         <v>780</v>
       </c>
-      <c r="C42" s="89" t="s">
+      <c r="D42" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E42" s="91" t="s">
         <v>781</v>
-      </c>
-      <c r="D42" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E42" s="91" t="s">
-        <v>782</v>
       </c>
       <c r="F42" s="91"/>
       <c r="G42" s="92">
         <v>9392209457</v>
       </c>
       <c r="H42" s="93" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="88"/>
       <c r="B43" s="89" t="s">
+        <v>783</v>
+      </c>
+      <c r="C43" s="89" t="s">
         <v>784</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="D43" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E43" s="91" t="s">
         <v>785</v>
-      </c>
-      <c r="D43" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E43" s="91" t="s">
-        <v>786</v>
       </c>
       <c r="F43" s="91"/>
       <c r="G43" s="92">
         <v>9096366995</v>
       </c>
       <c r="H43" s="93" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="88"/>
       <c r="B44" s="89" t="s">
+        <v>787</v>
+      </c>
+      <c r="C44" s="89" t="s">
         <v>788</v>
       </c>
-      <c r="C44" s="89" t="s">
+      <c r="D44" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E44" s="91" t="s">
         <v>789</v>
-      </c>
-      <c r="D44" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E44" s="91" t="s">
-        <v>790</v>
       </c>
       <c r="F44" s="91"/>
       <c r="G44" s="92">
@@ -8355,38 +8356,38 @@
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="88"/>
       <c r="B45" s="89" t="s">
+        <v>790</v>
+      </c>
+      <c r="C45" s="89" t="s">
         <v>791</v>
       </c>
-      <c r="C45" s="89" t="s">
+      <c r="D45" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E45" s="91" t="s">
         <v>792</v>
-      </c>
-      <c r="D45" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E45" s="91" t="s">
-        <v>793</v>
       </c>
       <c r="F45" s="91"/>
       <c r="G45" s="92">
         <v>9483387194</v>
       </c>
       <c r="H45" s="93" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="88"/>
       <c r="B46" s="89" t="s">
+        <v>794</v>
+      </c>
+      <c r="C46" s="89" t="s">
         <v>795</v>
       </c>
-      <c r="C46" s="89" t="s">
+      <c r="D46" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E46" s="91" t="s">
         <v>796</v>
-      </c>
-      <c r="D46" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E46" s="91" t="s">
-        <v>797</v>
       </c>
       <c r="F46" s="91"/>
       <c r="G46" s="92"/>
@@ -8395,59 +8396,59 @@
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="88"/>
       <c r="B47" s="89" t="s">
+        <v>797</v>
+      </c>
+      <c r="C47" s="89" t="s">
         <v>798</v>
       </c>
-      <c r="C47" s="89" t="s">
+      <c r="D47" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E47" s="91" t="s">
         <v>799</v>
-      </c>
-      <c r="D47" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E47" s="91" t="s">
-        <v>800</v>
       </c>
       <c r="F47" s="91"/>
       <c r="G47" s="92">
         <v>9186244417</v>
       </c>
       <c r="H47" s="94" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="88"/>
       <c r="B48" s="89" t="s">
+        <v>801</v>
+      </c>
+      <c r="C48" s="89" t="s">
         <v>802</v>
       </c>
-      <c r="C48" s="89" t="s">
+      <c r="D48" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E48" s="91" t="s">
         <v>803</v>
-      </c>
-      <c r="D48" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E48" s="91" t="s">
-        <v>804</v>
       </c>
       <c r="F48" s="91"/>
       <c r="G48" s="92">
         <v>9275768137</v>
       </c>
       <c r="H48" s="93" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="89" t="s">
+        <v>805</v>
+      </c>
+      <c r="C49" s="89" t="s">
         <v>806</v>
       </c>
-      <c r="C49" s="89" t="s">
+      <c r="D49" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E49" s="91" t="s">
         <v>807</v>
-      </c>
-      <c r="D49" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E49" s="91" t="s">
-        <v>808</v>
       </c>
       <c r="F49" s="91"/>
       <c r="G49" s="92"/>
@@ -8455,37 +8456,37 @@
     </row>
     <row r="50" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="89" t="s">
+        <v>808</v>
+      </c>
+      <c r="C50" s="89" t="s">
         <v>809</v>
       </c>
-      <c r="C50" s="89" t="s">
+      <c r="D50" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E50" s="91" t="s">
         <v>810</v>
-      </c>
-      <c r="D50" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E50" s="91" t="s">
-        <v>811</v>
       </c>
       <c r="F50" s="91"/>
       <c r="G50" s="92">
         <v>9985633710</v>
       </c>
       <c r="H50" s="93" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="89" t="s">
+        <v>812</v>
+      </c>
+      <c r="C51" s="89" t="s">
         <v>813</v>
       </c>
-      <c r="C51" s="89" t="s">
+      <c r="D51" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E51" s="91" t="s">
         <v>814</v>
-      </c>
-      <c r="D51" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E51" s="91" t="s">
-        <v>815</v>
       </c>
       <c r="F51" s="91"/>
       <c r="G51" s="92">
@@ -8495,37 +8496,37 @@
     </row>
     <row r="52" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="89" t="s">
+        <v>815</v>
+      </c>
+      <c r="C52" s="89" t="s">
         <v>816</v>
       </c>
-      <c r="C52" s="89" t="s">
+      <c r="D52" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E52" s="91" t="s">
         <v>817</v>
-      </c>
-      <c r="D52" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E52" s="91" t="s">
-        <v>818</v>
       </c>
       <c r="F52" s="91"/>
       <c r="G52" s="92">
         <v>9282630775</v>
       </c>
       <c r="H52" s="93" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="89" t="s">
+        <v>818</v>
+      </c>
+      <c r="C53" s="89" t="s">
         <v>819</v>
       </c>
-      <c r="C53" s="89" t="s">
+      <c r="D53" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E53" s="91" t="s">
         <v>820</v>
-      </c>
-      <c r="D53" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E53" s="91" t="s">
-        <v>821</v>
       </c>
       <c r="F53" s="91"/>
       <c r="G53" s="92"/>
@@ -8533,58 +8534,58 @@
     </row>
     <row r="54" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="89" t="s">
+        <v>821</v>
+      </c>
+      <c r="C54" s="89" t="s">
         <v>822</v>
       </c>
-      <c r="C54" s="89" t="s">
+      <c r="D54" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E54" s="91" t="s">
         <v>823</v>
-      </c>
-      <c r="D54" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E54" s="91" t="s">
-        <v>824</v>
       </c>
       <c r="F54" s="91"/>
       <c r="G54" s="92">
         <v>9264511227</v>
       </c>
       <c r="H54" s="93" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="89" t="s">
+        <v>825</v>
+      </c>
+      <c r="C55" s="89" t="s">
         <v>826</v>
       </c>
-      <c r="C55" s="89" t="s">
+      <c r="D55" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E55" s="91" t="s">
         <v>827</v>
-      </c>
-      <c r="D55" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E55" s="91" t="s">
-        <v>828</v>
       </c>
       <c r="F55" s="91"/>
       <c r="G55" s="92">
         <v>9096349775</v>
       </c>
       <c r="H55" s="93" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="89" t="s">
+        <v>829</v>
+      </c>
+      <c r="C56" s="89" t="s">
         <v>830</v>
       </c>
-      <c r="C56" s="89" t="s">
+      <c r="D56" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E56" s="91" t="s">
         <v>831</v>
-      </c>
-      <c r="D56" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E56" s="91" t="s">
-        <v>832</v>
       </c>
       <c r="F56" s="91"/>
       <c r="G56" s="92">
@@ -8594,16 +8595,16 @@
     </row>
     <row r="57" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="89" t="s">
+        <v>832</v>
+      </c>
+      <c r="C57" s="89" t="s">
         <v>833</v>
       </c>
-      <c r="C57" s="89" t="s">
+      <c r="D57" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="E57" s="91" t="s">
         <v>834</v>
-      </c>
-      <c r="D57" s="90" t="s">
-        <v>678</v>
-      </c>
-      <c r="E57" s="91" t="s">
-        <v>835</v>
       </c>
       <c r="F57" s="91"/>
       <c r="G57" s="92">
@@ -8613,23 +8614,23 @@
     </row>
     <row r="58" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="95" t="s">
+        <v>835</v>
+      </c>
+      <c r="C58" s="95" t="s">
         <v>836</v>
       </c>
-      <c r="C58" s="95" t="s">
+      <c r="D58" s="96" t="s">
+        <v>677</v>
+      </c>
+      <c r="E58" s="97" t="s">
         <v>837</v>
-      </c>
-      <c r="D58" s="96" t="s">
-        <v>678</v>
-      </c>
-      <c r="E58" s="97" t="s">
-        <v>838</v>
       </c>
       <c r="F58" s="97"/>
       <c r="G58" s="96">
         <v>9161139138</v>
       </c>
       <c r="H58" s="98" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -8687,7 +8688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -8700,20 +8701,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
     </row>
     <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
-        <v>853</v>
-      </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
+      <c r="A2" s="115" t="s">
+        <v>852</v>
+      </c>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -8735,10 +8736,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="103" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D4" s="103" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -8749,10 +8750,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="103" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D5" s="103" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -8763,10 +8764,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="103" t="s">
+        <v>859</v>
+      </c>
+      <c r="D6" s="103" t="s">
         <v>860</v>
-      </c>
-      <c r="D6" s="103" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -8777,10 +8778,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="103" t="s">
+        <v>855</v>
+      </c>
+      <c r="D7" s="103" t="s">
         <v>856</v>
-      </c>
-      <c r="D7" s="103" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -8791,10 +8792,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="103" t="s">
+        <v>861</v>
+      </c>
+      <c r="D8" s="103" t="s">
         <v>862</v>
-      </c>
-      <c r="D8" s="103" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -8805,10 +8806,10 @@
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>864</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -8822,7 +8823,7 @@
         <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8833,7 +8834,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>56</v>
@@ -8875,7 +8876,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>61</v>
@@ -8892,7 +8893,7 @@
         <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
@@ -8906,7 +8907,7 @@
         <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8920,7 +8921,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -8961,8 +8962,8 @@
       <c r="C20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="120" t="s">
-        <v>872</v>
+      <c r="D20" s="104" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8976,7 +8977,7 @@
         <v>70</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8990,7 +8991,7 @@
         <v>71</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9004,7 +9005,7 @@
         <v>72</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -9018,7 +9019,7 @@
         <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -9029,10 +9030,10 @@
         <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>877</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9071,10 +9072,10 @@
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>879</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -9116,7 +9117,7 @@
         <v>81</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -9127,10 +9128,10 @@
         <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -9144,7 +9145,7 @@
         <v>82</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9169,10 +9170,10 @@
         <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="D35" s="104" t="s">
         <v>885</v>
-      </c>
-      <c r="D35" s="120" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -9183,10 +9184,10 @@
         <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>887</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -9214,7 +9215,7 @@
         <v>87</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -9225,10 +9226,10 @@
         <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -9256,7 +9257,7 @@
         <v>90</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -9267,10 +9268,10 @@
         <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -9284,7 +9285,7 @@
         <v>91</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -9295,10 +9296,10 @@
         <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>896</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -9323,7 +9324,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>94</v>
@@ -9340,7 +9341,7 @@
         <v>95</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -9354,7 +9355,7 @@
         <v>96</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -9365,7 +9366,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>97</v>
@@ -9379,7 +9380,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>98</v>
@@ -9396,7 +9397,7 @@
         <v>99</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
@@ -9427,22 +9428,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
